--- a/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
+++ b/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:17:10+00:00</t>
+    <t>2022-03-29T08:21:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
+++ b/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T08:21:37+00:00</t>
+    <t>2022-03-29T10:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
+++ b/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T10:12:25+00:00</t>
+    <t>2022-03-30T15:39:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
+++ b/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:39:36+00:00</t>
+    <t>2022-04-06T16:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -117,7 +117,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://snomed.info/sct/</t>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
+++ b/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T16:28:25+00:00</t>
+    <t>2022-04-08T16:35:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
+++ b/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T16:35:46+00:00</t>
+    <t>2022-04-11T16:06:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
+++ b/ValueSet-be-vsbevolkingsonderzoek-body-site-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-11T16:06:52+00:00</t>
+    <t>2022-04-12T10:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
